--- a/Small_Vision_Model_h2oMississippi/results.xlsx
+++ b/Small_Vision_Model_h2oMississippi/results.xlsx
@@ -8,41 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/Small_Vision_Model_h2oMississippi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ADD025-3D6D-4841-97E7-D5AA0A580A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A6F67-ACEC-0B4D-973A-D6D56D201F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36800" yWindow="500" windowWidth="30380" windowHeight="21100" activeTab="2" xr2:uid="{88914AC3-F78E-EB46-AFBD-DB1929E85B89}"/>
+    <workbookView xWindow="36560" yWindow="500" windowWidth="30380" windowHeight="21100" xr2:uid="{88914AC3-F78E-EB46-AFBD-DB1929E85B89}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
-    <sheet name="recipts" sheetId="1" r:id="rId2"/>
-    <sheet name="drive_record" sheetId="3" r:id="rId3"/>
+    <sheet name="recipt_OLD" sheetId="1" r:id="rId2"/>
+    <sheet name="receipt" sheetId="4" r:id="rId3"/>
+    <sheet name="drive_record" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>&lt;image&gt;
-Read the printed text in the image. What is this image about. Short answer:</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;
-Extract the type of the image, categorizing it as 'Business Card', 'Resume' or 'Recipt'. Type:</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;
-Read the printed text in the image. Is this image a recipt? Yes or No:</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;
-Read the printed text in the image. How much is the total amount in this recipt? Amount:</t>
-  </si>
-  <si>
     <t>receipt1.png</t>
   </si>
   <si>
@@ -149,10 +134,6 @@
   </si>
   <si>
     <t>49.9 s</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Recipts</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -385,6 +366,218 @@
   </si>
   <si>
     <t>1min 29s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>drive_record</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. What is this image about. Short answer:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Extract the type of the image, categorizing it as 'Business Card', 'Resume' or 'Recipt'. Type:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. Is this image a recipt? Yes or No:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. How much is the total amount in this recipt? Amount:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. What is this image about. Short answer:</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Extract the type of the image, categorizing it as 'Business Card', 'Resume' or 'Receipt'. Type:</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. Is this image a receipt? Yes or No:</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;
+Read the printed text in the image. How much is the total amount in this receipt? Amount:</t>
+  </si>
+  <si>
+    <t>The image contains text, likely from a document or advertisement, but the specific details are indiscernible. The words are difficult to read due to the image resolution and quality.</t>
+  </si>
+  <si>
+    <t>The text in the image is a price list from PayPay, a payment app in Japan. The prices are listed in Japanese Yen, with each item listed for different combinations of units, such as 1096 units, 957 units, and 1000 units. There is also an asterisk indicating that prices are discounted by 10%. The prices are provided for LS41100L, VL117P, and are subject to additional charges for other items and discounted prices. The bottom part of the price list has Chinese characters and is unrelated to the price list in the image.</t>
+  </si>
+  <si>
+    <t>Categorized as a 'Receipt'.</t>
+  </si>
+  <si>
+    <t>1,87</t>
+  </si>
+  <si>
+    <t>The image shows a receipt with Japanese text. The details on the receipt include the check number (itemized list items), the total cost (which is not visible in the image), and various currency amounts. To read the text, the reader would need to have knowledge of the Japanese language and a tool or software capable of deciphering and reading the alphabet signs and numbers visible on the receipt.</t>
+  </si>
+  <si>
+    <t>The image contains a series of Japanese characters, likely part of a larger text. The text appears to be arranged in three columns with a column header containing the characters "3". There is a character followed by the number "4", another with the character "5", and a fourth with the character "8". It seems like a pattern of numbers being preceded by Japanese characters, with each character potentially representing another number or phrase.</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>This image is a screenshot of a restaurant's order total page from Joes Diner in Ocean City, New Jersey.</t>
+  </si>
+  <si>
+    <t>Chicken and beer for seven days a week at Ludarcis' Chicken and Beer restaurant.</t>
+  </si>
+  <si>
+    <t>The image shows a receipt from a restaurant named "Dell" and other restaurant prices and item listings.</t>
+  </si>
+  <si>
+    <t>The image is a business card, primarily used for identification and contact purposes in professional settings.</t>
+  </si>
+  <si>
+    <t>A close-up photograph of someone holding a receipt with various text, prices, and numbers.</t>
+  </si>
+  <si>
+    <t>67
+170
+150
+165
+399
+118
+148
+123
+-576
+511
+869
+-770
+509
+-699
+-170
+562
+-806
+-700
+-378
+-999
+00632P
+00636
+0063D
+0063DP
+00036
+0063DP
+0080DP
+008DF
+007BBF
+007BDF
+007DDBP
+00034
+0034DF
+0034DP
+0031DE
+052DIP
+052DF
+0005
+0052DP
+0054DP
+0070
+-149
+00732P
+0073DP
+0073DP
+007D
+-87
+00769
+0089
+-689
+007BFDA
+00BDBF
+-790
+-611
+0079DP
+-262
+0079DP
+00306
+-87
+-0034DA
+-0038DE
+061DP
+-26
+-14
+-0052DP
+-052DB
+0052DP
+-0001
+-018
+0007DF
+0073DP
+0073DP
+0073DP
+00769
+-509
+-772
+-99</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>44.7 s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>24.8 s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>24.9 s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>34.2 s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>The image contains Japanese text which appears to be associated with a business's contact information, a tax document, and a promotional banner with the image of a city skyline at sunset.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>The image shows a store receipt with various entries including the item names, their quantities, and prices. The items listed on the receipt are: 
+- 0.778kg Banana Cavendish
+- 0.442kg Banana Cavendish
+- SPECIAL 0 Special Banana Cavendish
+- SPECIAL 5 Special Banana Cavendish
+- 5.32kg Potatoes Brushed Potatoes
+- 10.32kg 5 Special Potatoes
+- 10.80kg 0 Special 5 Special Potatoes
+- 32 KG Special Potatoes
+- 15.32kg Special Grapes
+- 1.27kg Special Grapes
+- 3.15 kg Special Grapes 3.32kg Grape
+- 1.74kg Special Grapes 5 Special Grapes
+- 0.218kg Special Grapes 5 Special Grapes
+- 3.5 kg Special Grapes 5 Special Grapes
+- 39.99 kg Lettuce Iceberg
+- 15.00 kg Loyalty Lettuce Iceberg
+- 39.20 kg Loyalty Lettuce Iceberg
+- 55.10 kg Loyalty Lettuce Iceberg
+- 15.00 kg Loyalty Lettuce Iceberg
+- 24.20 kg Subtotal
+- 32.40 kg Sub Total
+- 20.20 USD
+- 25.80 CHANGE
+The subtotal amounts at $15.00, $24.20, and $25.80 respectively for Loyalty Lettuce Iceberg. The change amount is also listed in the image, but specific steps or calculations were not provided for measuring it.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[receipt_OLD]は、プロンプトにReceiptのスペルミス"Recipt"があったため、[receipt]が再実行結果</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -566,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1276,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4991C532-FB10-2445-9FEE-28CCFC75B485}">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B4:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1467,23 +1681,31 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1719,8 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1513,47 +1735,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="126">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="8">
         <v>5041</v>
@@ -1561,16 +1783,16 @@
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8">
         <v>187</v>
@@ -1578,16 +1800,16 @@
     </row>
     <row r="5" spans="1:5" ht="189">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6">
         <v>3340</v>
@@ -1595,33 +1817,33 @@
     </row>
     <row r="6" spans="1:5" ht="84">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <v>24.2</v>
@@ -1629,16 +1851,16 @@
     </row>
     <row r="8" spans="1:5" ht="84">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7">
         <v>45</v>
@@ -1646,16 +1868,16 @@
     </row>
     <row r="9" spans="1:5" ht="147">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5">
         <v>63.1</v>
@@ -1663,16 +1885,16 @@
     </row>
     <row r="10" spans="1:5" ht="168">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5">
         <v>27.81</v>
@@ -1680,16 +1902,16 @@
     </row>
     <row r="11" spans="1:5" ht="42">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <v>53.28</v>
@@ -1697,19 +1919,19 @@
     </row>
     <row r="12" spans="1:5" ht="21">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1719,11 +1941,241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0D96BB-DD85-5C4A-BE97-686D904335EB}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="105">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="147">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="126">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="189" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="307" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14">
+        <v>27.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14">
+        <v>53.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
+      <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F8877-8FE1-E845-9CA9-21E98DB591A6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1739,237 +2191,239 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="84">
       <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
       <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="252">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
       <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
       <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
       <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Small_Vision_Model_h2oMississippi/results.xlsx
+++ b/Small_Vision_Model_h2oMississippi/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/Small_Vision_Model_h2oMississippi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A6F67-ACEC-0B4D-973A-D6D56D201F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE2874D-8DAA-6945-B24C-B196D2E8B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36560" yWindow="500" windowWidth="30380" windowHeight="21100" xr2:uid="{88914AC3-F78E-EB46-AFBD-DB1929E85B89}"/>
+    <workbookView xWindow="3860" yWindow="500" windowWidth="27120" windowHeight="20980" activeTab="3" xr2:uid="{88914AC3-F78E-EB46-AFBD-DB1929E85B89}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -336,13 +336,6 @@
   </si>
   <si>
     <t>be careful of cars</t>
-  </si>
-  <si>
-    <t>推論時間</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">スイロンジカン </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>It is raining lightly.</t>
@@ -578,6 +571,13 @@
   </si>
   <si>
     <t>[receipt_OLD]は、プロンプトにReceiptのスペルミス"Recipt"があったため、[receipt]が再実行結果</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>推論時間 (T4 GPU)</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">スイロンジカン </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1670,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4991C532-FB10-2445-9FEE-28CCFC75B485}">
   <dimension ref="B4:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1719,8 +1719,8 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1735,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="126">
@@ -1919,7 +1919,7 @@
     </row>
     <row r="12" spans="1:5" ht="21">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>35</v>
@@ -1945,10 +1945,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63">
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="126">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>3</v>
@@ -2050,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="307" customHeight="1">
@@ -2067,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>4</v>
@@ -2084,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>27</v>
@@ -2101,10 +2101,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>4</v>
@@ -2118,10 +2118,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>4</v>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>3</v>
@@ -2149,19 +2149,19 @@
     </row>
     <row r="12" spans="1:5" ht="21">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F8877-8FE1-E845-9CA9-21E98DB591A6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2257,7 +2257,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>60</v>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
